--- a/Source/Resources/Raw/ScotlandsMountains/ListInfo.xlsx
+++ b/Source/Resources/Raw/ScotlandsMountains/ListInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmiller\GitHub\ScotlandsMountains\Source\Resources\Raw\ScotlandsMountains\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmiller\Source\Personal\scotlandsmountains\Source\Resources\Raw\ScotlandsMountains\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>1=</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>a summit that is not regarded as a separate mountain and which is over 3,000 feet</t>
+  </si>
+  <si>
+    <t>a mountain in Scotland with a height over 3,000 feet (914 m)</t>
+  </si>
+  <si>
+    <t>Enabled</t>
   </si>
 </sst>
 </file>
@@ -685,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,7 +708,7 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -712,8 +721,11 @@
       <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -723,8 +735,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -734,8 +749,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -745,8 +763,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -756,8 +777,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -767,8 +791,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -778,8 +805,11 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -789,8 +819,11 @@
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -800,8 +833,11 @@
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -811,8 +847,14 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -822,8 +864,14 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -833,8 +881,11 @@
       <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -844,8 +895,11 @@
       <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -855,8 +909,11 @@
       <c r="C14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -866,8 +923,11 @@
       <c r="C15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -877,8 +937,11 @@
       <c r="C16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -888,8 +951,11 @@
       <c r="C17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -899,8 +965,11 @@
       <c r="C18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -910,8 +979,11 @@
       <c r="C19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -921,8 +993,11 @@
       <c r="C20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -932,8 +1007,11 @@
       <c r="C21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -943,8 +1021,11 @@
       <c r="C22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -954,8 +1035,11 @@
       <c r="C23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -965,8 +1049,11 @@
       <c r="C24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -976,8 +1063,11 @@
       <c r="C25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -987,8 +1077,11 @@
       <c r="C26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -998,8 +1091,11 @@
       <c r="C27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1009,8 +1105,11 @@
       <c r="C28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1020,8 +1119,11 @@
       <c r="C29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1031,8 +1133,11 @@
       <c r="C30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1042,8 +1147,11 @@
       <c r="C31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1053,8 +1161,11 @@
       <c r="C32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1064,8 +1175,11 @@
       <c r="C33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1075,8 +1189,11 @@
       <c r="C34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -1086,8 +1203,11 @@
       <c r="C35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1097,8 +1217,11 @@
       <c r="C36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1108,8 +1231,11 @@
       <c r="C37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1119,8 +1245,11 @@
       <c r="C38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -1130,8 +1259,11 @@
       <c r="C39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1141,8 +1273,11 @@
       <c r="C40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1152,8 +1287,11 @@
       <c r="C41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1163,8 +1301,11 @@
       <c r="C42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1174,8 +1315,11 @@
       <c r="C43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -1185,8 +1329,11 @@
       <c r="C44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1196,8 +1343,11 @@
       <c r="C45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1357,11 @@
       <c r="C46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -1218,8 +1371,11 @@
       <c r="C47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1229,8 +1385,11 @@
       <c r="C48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1240,8 +1399,11 @@
       <c r="C49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1251,8 +1413,11 @@
       <c r="C50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1262,8 +1427,11 @@
       <c r="C51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1273,8 +1441,11 @@
       <c r="C52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1284,8 +1455,11 @@
       <c r="C53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -1295,8 +1469,11 @@
       <c r="C54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1483,11 @@
       <c r="C55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -1317,8 +1497,11 @@
       <c r="C56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -1328,8 +1511,11 @@
       <c r="C57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -1338,6 +1524,9 @@
       </c>
       <c r="C58">
         <v>57</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Resources/Raw/ScotlandsMountains/ListInfo.xlsx
+++ b/Source/Resources/Raw/ScotlandsMountains/ListInfo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>1=</t>
   </si>
@@ -188,147 +188,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Dewey</t>
-  </si>
-  <si>
-    <t>Donald Dewey</t>
-  </si>
-  <si>
-    <t>Highland Five</t>
-  </si>
-  <si>
-    <t>Myrddyn Dewey</t>
-  </si>
-  <si>
-    <t>Arderin</t>
-  </si>
-  <si>
-    <t>Birkett</t>
-  </si>
-  <si>
-    <t>Corbett</t>
-  </si>
-  <si>
-    <t>County Top – Administrative</t>
-  </si>
-  <si>
-    <t>County Top – Historic</t>
-  </si>
-  <si>
-    <t>County Top – London Borough</t>
-  </si>
-  <si>
-    <t>County Top – Current County and Unitary Authority</t>
-  </si>
-  <si>
-    <t>Corbett Top</t>
-  </si>
-  <si>
-    <t>Donald</t>
-  </si>
-  <si>
-    <t>Dillon</t>
-  </si>
-  <si>
-    <t>Donald Top</t>
-  </si>
-  <si>
-    <t>Furth</t>
-  </si>
-  <si>
-    <t>Fellranger</t>
-  </si>
-  <si>
-    <t>Graham</t>
-  </si>
-  <si>
-    <t>Graham Top</t>
-  </si>
-  <si>
-    <t>Hewitt</t>
-  </si>
-  <si>
-    <t>Munro</t>
-  </si>
-  <si>
-    <t>Marilyn</t>
-  </si>
-  <si>
-    <t>Munro Top</t>
-  </si>
-  <si>
-    <t>Murdo</t>
-  </si>
-  <si>
-    <t>Nuttall</t>
-  </si>
-  <si>
     <t>Other list</t>
   </si>
   <si>
-    <t>Significant Island of Britain</t>
-  </si>
-  <si>
-    <t>Simm</t>
-  </si>
-  <si>
-    <t>Synge</t>
-  </si>
-  <si>
     <t>unclassified</t>
   </si>
   <si>
-    <t>Vandeleur-Lynam</t>
-  </si>
-  <si>
-    <t>Wainwright</t>
-  </si>
-  <si>
-    <t>Wainwright Outlying Fell</t>
-  </si>
-  <si>
-    <t>County Top – London Borough twin</t>
-  </si>
-  <si>
-    <t>County Top – Current County and Unitary Authority twin</t>
-  </si>
-  <si>
-    <t>Marilyn twin</t>
-  </si>
-  <si>
-    <t>Deleted Donald Top</t>
-  </si>
-  <si>
-    <t>Deleted Graham</t>
-  </si>
-  <si>
-    <t>Deleted Munro Top</t>
-  </si>
-  <si>
-    <t>Deleted Nuttall</t>
-  </si>
-  <si>
-    <t>Deleted Corbett</t>
-  </si>
-  <si>
-    <t>Subordinate Dewey</t>
-  </si>
-  <si>
-    <t>Subordinate Donald Dewey</t>
-  </si>
-  <si>
-    <t>Subordinate Highland Five</t>
-  </si>
-  <si>
-    <t>Subordinate Myrddyn Dewey</t>
-  </si>
-  <si>
-    <t>Subordinate Marilyn</t>
-  </si>
-  <si>
-    <t>Subordinate Simm</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -338,36 +203,6 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>HuMP</t>
-  </si>
-  <si>
-    <t>HuMP twin</t>
-  </si>
-  <si>
-    <t>Subordinate HuMP</t>
-  </si>
-  <si>
-    <t>400-499m TuMP</t>
-  </si>
-  <si>
-    <t>Subordinate 400-499m TuMP</t>
-  </si>
-  <si>
-    <t>300-399m TuMP (GB)</t>
-  </si>
-  <si>
-    <t>200-299m TuMP (GB)</t>
-  </si>
-  <si>
-    <t>100-199m TuMP (GB)</t>
-  </si>
-  <si>
-    <t>100-199m TuMP (GB) twin</t>
-  </si>
-  <si>
-    <t>0-99m TuMP (GB)</t>
-  </si>
-  <si>
     <t>mountains in the Scottish Lowlands over 2,000 feet (610m)</t>
   </si>
   <si>
@@ -446,7 +281,169 @@
     <t>subordinate tops of hills between 400m and 499m with a prominence of at least 30m</t>
   </si>
   <si>
-    <t>subordinate top of hills in the Scottish Lowlands between 500m and 609m high with a prominence of at least 30m</t>
+    <t>Marilyns</t>
+  </si>
+  <si>
+    <t>Marilyn twins</t>
+  </si>
+  <si>
+    <t>HuMPs</t>
+  </si>
+  <si>
+    <t>HuMP twins</t>
+  </si>
+  <si>
+    <t>Simms</t>
+  </si>
+  <si>
+    <t>Munros</t>
+  </si>
+  <si>
+    <t>Munro Tops</t>
+  </si>
+  <si>
+    <t>Deleted Munro Tops</t>
+  </si>
+  <si>
+    <t>Furths</t>
+  </si>
+  <si>
+    <t>Corbetts</t>
+  </si>
+  <si>
+    <t>Deleted Corbetts</t>
+  </si>
+  <si>
+    <t>Grahams</t>
+  </si>
+  <si>
+    <t>Deleted Grahams</t>
+  </si>
+  <si>
+    <t>Donalds</t>
+  </si>
+  <si>
+    <t>Donald Tops</t>
+  </si>
+  <si>
+    <t>Deleted Donald Tops</t>
+  </si>
+  <si>
+    <t>Murdos</t>
+  </si>
+  <si>
+    <t>Corbett Tops</t>
+  </si>
+  <si>
+    <t>Graham Tops</t>
+  </si>
+  <si>
+    <t>Hewitts</t>
+  </si>
+  <si>
+    <t>Nuttalls</t>
+  </si>
+  <si>
+    <t>Deleted Nuttalls</t>
+  </si>
+  <si>
+    <t>Deweys</t>
+  </si>
+  <si>
+    <t>Donald Deweys</t>
+  </si>
+  <si>
+    <t>Highland Fives</t>
+  </si>
+  <si>
+    <t>400-499m TuMPs</t>
+  </si>
+  <si>
+    <t>Wainwrights</t>
+  </si>
+  <si>
+    <t>Wainwright Outlying Fells</t>
+  </si>
+  <si>
+    <t>Birketts</t>
+  </si>
+  <si>
+    <t>Synges</t>
+  </si>
+  <si>
+    <t>Fellrangers</t>
+  </si>
+  <si>
+    <t>Dillons</t>
+  </si>
+  <si>
+    <t>Arderins</t>
+  </si>
+  <si>
+    <t>Vandeleur-Lynams</t>
+  </si>
+  <si>
+    <t>Myrddyn Deweys</t>
+  </si>
+  <si>
+    <t>300m to 399m TuMPs</t>
+  </si>
+  <si>
+    <t>200m to 299m TuMPs</t>
+  </si>
+  <si>
+    <t>100m to 199m TuMPs</t>
+  </si>
+  <si>
+    <t>100m to 199m TuMP twins</t>
+  </si>
+  <si>
+    <t>Significant Islands of Britain</t>
+  </si>
+  <si>
+    <t>County Tops (Historic)</t>
+  </si>
+  <si>
+    <t>County Tops (Current County and Unitary Authority)</t>
+  </si>
+  <si>
+    <t>County Top twins (Current County and Unitary Authority)</t>
+  </si>
+  <si>
+    <t>County Tops (Administrative)</t>
+  </si>
+  <si>
+    <t>County Tops (London Borough)</t>
+  </si>
+  <si>
+    <t>0m to 99m TuMPs</t>
+  </si>
+  <si>
+    <t>Sub-Highland Fives</t>
+  </si>
+  <si>
+    <t>Sub-Marilyns</t>
+  </si>
+  <si>
+    <t>Sub-HuMPs</t>
+  </si>
+  <si>
+    <t>Sub-Simms</t>
+  </si>
+  <si>
+    <t>Sub-Deweys</t>
+  </si>
+  <si>
+    <t>Sub-Donald Deweys</t>
+  </si>
+  <si>
+    <t>Sub-400m to 499m TuMPs</t>
+  </si>
+  <si>
+    <t>Sub-Myrddyn Deweys</t>
+  </si>
+  <si>
+    <t>subordinate tops of hills in the Scottish Lowlands between 500m and 609m high with a prominence of at least 30m</t>
   </si>
 </sst>
 </file>
@@ -806,13 +803,13 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -820,13 +817,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>1</v>
@@ -837,13 +834,13 @@
         <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3">
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>1</v>
@@ -854,13 +851,13 @@
         <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3">
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>1</v>
@@ -871,13 +868,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3">
         <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>1</v>
@@ -888,13 +885,13 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -905,13 +902,13 @@
         <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -922,13 +919,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3">
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>1</v>
@@ -939,7 +936,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -953,13 +950,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>1</v>
@@ -970,13 +967,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>1</v>
@@ -1001,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1015,13 +1012,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>1</v>
@@ -1032,7 +1029,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1046,13 +1043,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3">
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>1</v>
@@ -1063,7 +1060,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1077,13 +1074,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3">
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>1</v>
@@ -1094,13 +1091,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3">
         <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>1</v>
@@ -1111,7 +1108,7 @@
         <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1125,13 +1122,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>1</v>
@@ -1142,13 +1139,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>1</v>
@@ -1159,13 +1156,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3">
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>1</v>
@@ -1176,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1190,7 +1187,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1204,7 +1201,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -1218,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1232,7 +1229,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -1246,13 +1243,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C29" s="3">
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="E29" s="3" t="b">
         <v>1</v>
@@ -1263,13 +1260,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C30" s="3">
         <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="3" t="b">
         <v>1</v>
@@ -1280,13 +1277,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C31" s="3">
         <v>12</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3" t="b">
         <v>1</v>
@@ -1297,13 +1294,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C32" s="3">
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E32" s="3" t="b">
         <v>1</v>
@@ -1314,13 +1311,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C33" s="3">
         <v>19</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="E33" s="3" t="b">
         <v>1</v>
@@ -1331,13 +1328,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C34" s="3">
         <v>20</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E34" s="3" t="b">
         <v>1</v>
@@ -1348,13 +1345,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C35" s="3">
         <v>21</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="E35" s="3" t="b">
         <v>1</v>
@@ -1365,13 +1362,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C36" s="3">
         <v>22</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E36" s="3" t="b">
         <v>1</v>
@@ -1382,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C37" s="3">
         <v>23</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>1</v>
@@ -1399,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E38" s="3" t="b">
         <v>0</v>
@@ -1416,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C39" s="3">
         <v>24</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="E39" s="3" t="b">
         <v>1</v>
@@ -1433,7 +1430,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -1447,7 +1444,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -1461,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -1475,7 +1472,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -1489,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -1503,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -1517,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -1531,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -1545,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -1559,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
@@ -1573,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
@@ -1587,7 +1584,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
@@ -1601,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -1615,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -1629,7 +1626,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -1643,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -1657,7 +1654,7 @@
         <v>35</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -1671,7 +1668,7 @@
         <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
@@ -1685,7 +1682,7 @@
         <v>42</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
